--- a/output/CANVAS_15212344000131.xlsx
+++ b/output/CANVAS_15212344000131.xlsx
@@ -1450,10 +1450,10 @@
         <v>44165</v>
       </c>
       <c r="B97">
-        <v>1.1805908</v>
+        <v>1.1762169</v>
       </c>
       <c r="C97">
-        <v>0.03595893925262428</v>
+        <v>0.03388097909412169</v>
       </c>
     </row>
   </sheetData>

--- a/output/CANVAS_15212344000131.xlsx
+++ b/output/CANVAS_15212344000131.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CANVAS ENDURO 30 CSHG FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1074 +383,786 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41274</v>
       </c>
       <c r="B2">
-        <v>0.005545799999999934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41305</v>
       </c>
       <c r="B3">
-        <v>0.01290290000000005</v>
-      </c>
-      <c r="C3">
         <v>0.007316524021083959</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41333</v>
       </c>
       <c r="B4">
-        <v>0.02127199999999996</v>
-      </c>
-      <c r="C4">
         <v>0.008262489918826388</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41364</v>
       </c>
       <c r="B5">
-        <v>0.03112739999999992</v>
-      </c>
-      <c r="C5">
         <v>0.009650122592218313</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41394</v>
       </c>
       <c r="B6">
-        <v>0.03443820000000009</v>
-      </c>
-      <c r="C6">
         <v>0.003210854449217537</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41425</v>
       </c>
       <c r="B7">
-        <v>0.04656949999999993</v>
-      </c>
-      <c r="C7">
         <v>0.01172742847276886</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41455</v>
       </c>
       <c r="B8">
-        <v>0.05771079999999995</v>
-      </c>
-      <c r="C8">
         <v>0.01064554241261573</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41486</v>
       </c>
       <c r="B9">
-        <v>0.06754389999999999</v>
-      </c>
-      <c r="C9">
         <v>0.009296586552770325</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41517</v>
       </c>
       <c r="B10">
-        <v>0.07911439999999992</v>
-      </c>
-      <c r="C10">
         <v>0.01083843015729835</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41547</v>
       </c>
       <c r="B11">
-        <v>0.07373019999999997</v>
-      </c>
-      <c r="C11">
         <v>-0.004989461728988065</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41578</v>
       </c>
       <c r="B12">
-        <v>0.07198410000000011</v>
-      </c>
-      <c r="C12">
         <v>-0.001626199952278418</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41608</v>
       </c>
       <c r="B13">
-        <v>0.08887629999999991</v>
-      </c>
-      <c r="C13">
         <v>0.01575788297606251</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41639</v>
       </c>
       <c r="B14">
-        <v>0.102357</v>
-      </c>
-      <c r="C14">
         <v>0.01238037782620505</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41670</v>
       </c>
       <c r="B15">
-        <v>0.1004442999999999</v>
-      </c>
-      <c r="C15">
         <v>-0.001735100335009565</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41698</v>
       </c>
       <c r="B16">
-        <v>0.101988</v>
-      </c>
-      <c r="C16">
         <v>0.001402797033889014</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41729</v>
       </c>
       <c r="B17">
-        <v>0.1043970999999999</v>
-      </c>
-      <c r="C17">
         <v>0.002186139957966793</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41759</v>
       </c>
       <c r="B18">
-        <v>0.1060467</v>
-      </c>
-      <c r="C18">
         <v>0.001493665638926611</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41790</v>
       </c>
       <c r="B19">
-        <v>0.1247141</v>
-      </c>
-      <c r="C19">
         <v>0.01687758753766899</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41820</v>
       </c>
       <c r="B20">
-        <v>0.1352495</v>
-      </c>
-      <c r="C20">
         <v>0.009367180512807716</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41851</v>
       </c>
       <c r="B21">
-        <v>0.1483323000000001</v>
-      </c>
-      <c r="C21">
         <v>0.0115241627501268</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41882</v>
       </c>
       <c r="B22">
-        <v>0.1584182000000001</v>
-      </c>
-      <c r="C22">
         <v>0.008783084826578413</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41912</v>
       </c>
       <c r="B23">
-        <v>0.1766897999999999</v>
-      </c>
-      <c r="C23">
         <v>0.01577288754613826</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41943</v>
       </c>
       <c r="B24">
-        <v>0.1928791999999999</v>
-      </c>
-      <c r="C24">
         <v>0.01375842639241043</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41973</v>
       </c>
       <c r="B25">
-        <v>0.2065621</v>
-      </c>
-      <c r="C25">
         <v>0.01147048250988036</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42004</v>
       </c>
       <c r="B26">
-        <v>0.2241169000000001</v>
-      </c>
-      <c r="C26">
         <v>0.0145494376128672</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42035</v>
       </c>
       <c r="B27">
-        <v>0.2360996</v>
-      </c>
-      <c r="C27">
         <v>0.009788852682288685</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42063</v>
       </c>
       <c r="B28">
-        <v>0.2498574</v>
-      </c>
-      <c r="C28">
         <v>0.0111300092646256</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42094</v>
       </c>
       <c r="B29">
-        <v>0.2827748000000001</v>
-      </c>
-      <c r="C29">
         <v>0.02633692451634895</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42124</v>
       </c>
       <c r="B30">
-        <v>0.2737206000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.007058292694867463</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42155</v>
       </c>
       <c r="B31">
-        <v>0.2869478000000001</v>
-      </c>
-      <c r="C31">
         <v>0.01038469504222506</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42185</v>
       </c>
       <c r="B32">
-        <v>0.2869280000000001</v>
-      </c>
-      <c r="C32">
         <v>-1.538523940136649e-05</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42216</v>
       </c>
       <c r="B33">
-        <v>0.3049097000000001</v>
-      </c>
-      <c r="C33">
         <v>0.01397257655439921</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42247</v>
       </c>
       <c r="B34">
-        <v>0.3060434000000001</v>
-      </c>
-      <c r="C34">
         <v>0.0008687957488553444</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42277</v>
       </c>
       <c r="B35">
-        <v>0.3286967999999999</v>
-      </c>
-      <c r="C35">
         <v>0.01734505913050044</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42308</v>
       </c>
       <c r="B36">
-        <v>0.3415294</v>
-      </c>
-      <c r="C36">
         <v>0.009658034850388741</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42338</v>
       </c>
       <c r="B37">
-        <v>0.3573431</v>
-      </c>
-      <c r="C37">
         <v>0.01178781471356505</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42369</v>
       </c>
       <c r="B38">
-        <v>0.3668834000000001</v>
-      </c>
-      <c r="C38">
         <v>0.007028657676898309</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42400</v>
       </c>
       <c r="B39">
-        <v>0.3790462999999999</v>
-      </c>
-      <c r="C39">
         <v>0.008898271791141665</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42429</v>
       </c>
       <c r="B40">
-        <v>0.3939300999999999</v>
-      </c>
-      <c r="C40">
         <v>0.01079282109672453</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42460</v>
       </c>
       <c r="B41">
-        <v>0.4031057</v>
-      </c>
-      <c r="C41">
         <v>0.006582539540540777</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42490</v>
       </c>
       <c r="B42">
-        <v>0.4413351999999999</v>
-      </c>
-      <c r="C42">
         <v>0.02724634359335854</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42521</v>
       </c>
       <c r="B43">
-        <v>0.4404840000000001</v>
-      </c>
-      <c r="C43">
         <v>-0.0005905635274846555</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42551</v>
       </c>
       <c r="B44">
-        <v>0.4633472000000001</v>
-      </c>
-      <c r="C44">
         <v>0.01587188750447766</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42582</v>
       </c>
       <c r="B45">
-        <v>0.4849766</v>
-      </c>
-      <c r="C45">
         <v>0.01478077109793219</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42613</v>
       </c>
       <c r="B46">
-        <v>0.4998657</v>
-      </c>
-      <c r="C46">
         <v>0.01002648795947358</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42643</v>
       </c>
       <c r="B47">
-        <v>0.5355561</v>
-      </c>
-      <c r="C47">
         <v>0.02379573051107187</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42674</v>
       </c>
       <c r="B48">
-        <v>0.5451988999999999</v>
-      </c>
-      <c r="C48">
         <v>0.006279679394324944</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42704</v>
       </c>
       <c r="B49">
-        <v>0.523344</v>
-      </c>
-      <c r="C49">
         <v>-0.01414374550745534</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42735</v>
       </c>
       <c r="B50">
-        <v>0.5510877999999999</v>
-      </c>
-      <c r="C50">
         <v>0.01821243264817385</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42766</v>
       </c>
       <c r="B51">
-        <v>0.5757696000000001</v>
-      </c>
-      <c r="C51">
         <v>0.01591257438811655</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42794</v>
       </c>
       <c r="B52">
-        <v>0.6244719000000001</v>
-      </c>
-      <c r="C52">
         <v>0.03090699300202271</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42825</v>
       </c>
       <c r="B53">
-        <v>0.6572252000000001</v>
-      </c>
-      <c r="C53">
         <v>0.0201624294024414</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42855</v>
       </c>
       <c r="B54">
-        <v>0.6771018</v>
-      </c>
-      <c r="C54">
         <v>0.0119939040270447</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42886</v>
       </c>
       <c r="B55">
-        <v>0.5998684999999999</v>
-      </c>
-      <c r="C55">
         <v>-0.04605164695428754</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42916</v>
       </c>
       <c r="B56">
-        <v>0.6226187999999999</v>
-      </c>
-      <c r="C56">
         <v>0.0142201062149796</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42947</v>
       </c>
       <c r="B57">
-        <v>0.6722798000000001</v>
-      </c>
-      <c r="C57">
         <v>0.03060546321785518</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42978</v>
       </c>
       <c r="B58">
-        <v>0.709762</v>
-      </c>
-      <c r="C58">
         <v>0.02241383290045107</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43008</v>
       </c>
       <c r="B59">
-        <v>0.7447531999999999</v>
-      </c>
-      <c r="C59">
         <v>0.02046553847845489</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43039</v>
       </c>
       <c r="B60">
-        <v>0.7406261999999999</v>
-      </c>
-      <c r="C60">
         <v>-0.002365377521588719</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43069</v>
       </c>
       <c r="B61">
-        <v>0.7390022999999999</v>
-      </c>
-      <c r="C61">
         <v>-0.0009329401108635338</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43100</v>
       </c>
       <c r="B62">
-        <v>0.767741</v>
-      </c>
-      <c r="C62">
         <v>0.01652597009216161</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43131</v>
       </c>
       <c r="B63">
-        <v>0.8154102000000001</v>
-      </c>
-      <c r="C63">
         <v>0.02696616755508874</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43159</v>
       </c>
       <c r="B64">
-        <v>0.8336049000000001</v>
-      </c>
-      <c r="C64">
         <v>0.0100223629899181</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43190</v>
       </c>
       <c r="B65">
-        <v>0.8453375000000001</v>
-      </c>
-      <c r="C65">
         <v>0.006398652185102716</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43220</v>
       </c>
       <c r="B66">
-        <v>0.8488789999999999</v>
-      </c>
-      <c r="C66">
         <v>0.001919161129061653</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43251</v>
       </c>
       <c r="B67">
-        <v>0.7984135999999999</v>
-      </c>
-      <c r="C67">
         <v>-0.02729513397036798</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43281</v>
       </c>
       <c r="B68">
-        <v>0.8001761000000001</v>
-      </c>
-      <c r="C68">
         <v>0.000980030400125953</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43312</v>
       </c>
       <c r="B69">
-        <v>0.8310257000000001</v>
-      </c>
-      <c r="C69">
         <v>0.01713699009780201</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43343</v>
       </c>
       <c r="B70">
-        <v>0.8022423999999999</v>
-      </c>
-      <c r="C70">
         <v>-0.01571976843361633</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43373</v>
       </c>
       <c r="B71">
-        <v>0.8082391</v>
-      </c>
-      <c r="C71">
         <v>0.003327354855262588</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43404</v>
       </c>
       <c r="B72">
-        <v>0.8853446</v>
-      </c>
-      <c r="C72">
         <v>0.04264120823402173</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43434</v>
       </c>
       <c r="B73">
-        <v>0.8867323</v>
-      </c>
-      <c r="C73">
         <v>0.0007360458135876602</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43465</v>
       </c>
       <c r="B74">
-        <v>0.8958472</v>
-      </c>
-      <c r="C74">
         <v>0.004831051018737487</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43496</v>
       </c>
       <c r="B75">
-        <v>1.0013161</v>
-      </c>
-      <c r="C75">
         <v>0.05563154034776652</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43524</v>
       </c>
       <c r="B76">
-        <v>0.9930779000000001</v>
-      </c>
-      <c r="C76">
         <v>-0.004116391208765058</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43555</v>
       </c>
       <c r="B77">
-        <v>0.9657621999999999</v>
-      </c>
-      <c r="C77">
         <v>-0.01370528467552634</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43585</v>
       </c>
       <c r="B78">
-        <v>0.9897452</v>
-      </c>
-      <c r="C78">
         <v>0.01220035668607333</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43616</v>
       </c>
       <c r="B79">
-        <v>1.0142128</v>
-      </c>
-      <c r="C79">
         <v>0.01229685087316712</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43646</v>
       </c>
       <c r="B80">
-        <v>1.073767</v>
-      </c>
-      <c r="C80">
         <v>0.02956698517654144</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43677</v>
       </c>
       <c r="B81">
-        <v>1.0996689</v>
-      </c>
-      <c r="C81">
         <v>0.01249026529981423</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43708</v>
       </c>
       <c r="B82">
-        <v>1.081874</v>
-      </c>
-      <c r="C82">
         <v>-0.008475098145236171</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43738</v>
       </c>
       <c r="B83">
-        <v>1.0900906</v>
-      </c>
-      <c r="C83">
         <v>0.003946732607256642</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43769</v>
       </c>
       <c r="B84">
-        <v>1.1319793</v>
-      </c>
-      <c r="C84">
         <v>0.02004157140365104</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43799</v>
       </c>
       <c r="B85">
-        <v>1.1101821</v>
-      </c>
-      <c r="C85">
         <v>-0.01022392665819971</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43830</v>
       </c>
       <c r="B86">
-        <v>1.1641583</v>
-      </c>
-      <c r="C86">
         <v>0.02557892989424948</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43861</v>
       </c>
       <c r="B87">
-        <v>1.1292856</v>
-      </c>
-      <c r="C87">
         <v>-0.01611374731691306</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43890</v>
       </c>
       <c r="B88">
-        <v>1.0712904</v>
-      </c>
-      <c r="C88">
         <v>-0.02723692866753047</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43921</v>
       </c>
       <c r="B89">
-        <v>0.9880087</v>
-      </c>
-      <c r="C89">
         <v>-0.04020764060896542</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43951</v>
       </c>
       <c r="B90">
-        <v>1.0326502</v>
-      </c>
-      <c r="C90">
         <v>0.02245538462683783</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43982</v>
       </c>
       <c r="B91">
-        <v>1.1121598</v>
-      </c>
-      <c r="C91">
         <v>0.0391162237358893</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>44012</v>
       </c>
       <c r="B92">
-        <v>1.1577979</v>
-      </c>
-      <c r="C92">
         <v>0.02160731399205673</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>44043</v>
       </c>
       <c r="B93">
-        <v>1.2187508</v>
-      </c>
-      <c r="C93">
         <v>0.0282477334879232</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>44074</v>
       </c>
       <c r="B94">
-        <v>1.1834896</v>
-      </c>
-      <c r="C94">
         <v>-0.0158923661007806</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>44104</v>
       </c>
       <c r="B95">
-        <v>1.1309533</v>
-      </c>
-      <c r="C95">
         <v>-0.02406070539562011</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>44135</v>
       </c>
       <c r="B96">
-        <v>1.1049008</v>
-      </c>
-      <c r="C96">
         <v>-0.0122257489171631</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>44165</v>
       </c>
       <c r="B97">
-        <v>1.1762169</v>
-      </c>
-      <c r="C97">
-        <v>0.03388097909412169</v>
+        <v>0.02692720721090525</v>
       </c>
     </row>
   </sheetData>
